--- a/1800.xlsx
+++ b/1800.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C858CEE3-96D7-49B8-8AB3-4491FC37F43A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFAECF-AF92-4376-A5ED-43921377CA0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,7 +365,7 @@
         <v>2020058572005</v>
       </c>
       <c r="B2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
